--- a/Dataset/River.xlsx
+++ b/Dataset/River.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="209">
   <si>
     <t>Cao nhất</t>
   </si>
@@ -1007,6 +1007,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="41.5"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1"/>
@@ -1043,7 +1046,21 @@
       <c r="AB1" s="3"/>
       <c r="AC1" s="3"/>
       <c r="AD1" s="3"/>
-      <c r="AE1" s="4"/>
+      <c r="AE1" s="3"/>
+      <c r="AF1" s="3"/>
+      <c r="AG1" s="3"/>
+      <c r="AH1" s="3"/>
+      <c r="AI1" s="3"/>
+      <c r="AJ1" s="3"/>
+      <c r="AK1" s="3"/>
+      <c r="AL1" s="3"/>
+      <c r="AM1" s="3"/>
+      <c r="AN1" s="3"/>
+      <c r="AO1" s="3"/>
+      <c r="AP1" s="3"/>
+      <c r="AQ1" s="3"/>
+      <c r="AR1" s="3"/>
+      <c r="AS1" s="4"/>
     </row>
     <row r="2">
       <c r="A2" s="5"/>
@@ -1137,6 +1154,48 @@
       <c r="AE2" s="6">
         <v>2009.0</v>
       </c>
+      <c r="AF2" s="6">
+        <v>2010.0</v>
+      </c>
+      <c r="AG2" s="6">
+        <v>2011.0</v>
+      </c>
+      <c r="AH2" s="6">
+        <v>2012.0</v>
+      </c>
+      <c r="AI2" s="6">
+        <v>2013.0</v>
+      </c>
+      <c r="AJ2" s="6">
+        <v>2014.0</v>
+      </c>
+      <c r="AK2" s="6">
+        <v>2015.0</v>
+      </c>
+      <c r="AL2" s="6">
+        <v>2016.0</v>
+      </c>
+      <c r="AM2" s="6">
+        <v>2017.0</v>
+      </c>
+      <c r="AN2" s="6">
+        <v>2018.0</v>
+      </c>
+      <c r="AO2" s="6">
+        <v>2019.0</v>
+      </c>
+      <c r="AP2" s="6">
+        <v>2020.0</v>
+      </c>
+      <c r="AQ2" s="6">
+        <v>2021.0</v>
+      </c>
+      <c r="AR2" s="6">
+        <v>2022.0</v>
+      </c>
+      <c r="AS2" s="6">
+        <v>2023.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="7" t="s">
@@ -1232,6 +1291,48 @@
       <c r="AE3" s="8">
         <v>16.354</v>
       </c>
+      <c r="AF3" s="8">
+        <v>16.26</v>
+      </c>
+      <c r="AG3" s="8">
+        <v>16.26</v>
+      </c>
+      <c r="AH3" s="8">
+        <v>17.55</v>
+      </c>
+      <c r="AI3" s="8">
+        <v>17.743</v>
+      </c>
+      <c r="AJ3" s="8">
+        <v>17.874</v>
+      </c>
+      <c r="AK3" s="8">
+        <v>17.919</v>
+      </c>
+      <c r="AL3" s="8">
+        <v>17.844</v>
+      </c>
+      <c r="AM3" s="8">
+        <v>18.829</v>
+      </c>
+      <c r="AN3" s="8">
+        <v>18.77</v>
+      </c>
+      <c r="AO3" s="8">
+        <v>17.863</v>
+      </c>
+      <c r="AP3" s="8">
+        <v>17.97</v>
+      </c>
+      <c r="AQ3" s="8">
+        <v>18.016</v>
+      </c>
+      <c r="AR3" s="8">
+        <v>19.366</v>
+      </c>
+      <c r="AS3" s="8" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="7" t="s">
@@ -1327,6 +1428,48 @@
       <c r="AE4" s="8">
         <v>1.012</v>
       </c>
+      <c r="AF4" s="8">
+        <v>981.0</v>
+      </c>
+      <c r="AG4" s="8">
+        <v>981.0</v>
+      </c>
+      <c r="AH4" s="8">
+        <v>950.0</v>
+      </c>
+      <c r="AI4" s="8">
+        <v>941.0</v>
+      </c>
+      <c r="AJ4" s="8">
+        <v>936.0</v>
+      </c>
+      <c r="AK4" s="8">
+        <v>937.0</v>
+      </c>
+      <c r="AL4" s="8">
+        <v>939.0</v>
+      </c>
+      <c r="AM4" s="8">
+        <v>962.0</v>
+      </c>
+      <c r="AN4" s="8">
+        <v>954.0</v>
+      </c>
+      <c r="AO4" s="8">
+        <v>886.0</v>
+      </c>
+      <c r="AP4" s="8">
+        <v>878.0</v>
+      </c>
+      <c r="AQ4" s="8">
+        <v>820.0</v>
+      </c>
+      <c r="AR4" s="8">
+        <v>777.0</v>
+      </c>
+      <c r="AS4" s="8" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="7" t="s">
@@ -1422,6 +1565,48 @@
       <c r="AE5" s="8">
         <v>2.482</v>
       </c>
+      <c r="AF5" s="8">
+        <v>2.482</v>
+      </c>
+      <c r="AG5" s="8">
+        <v>2.453</v>
+      </c>
+      <c r="AH5" s="8">
+        <v>2.472</v>
+      </c>
+      <c r="AI5" s="8">
+        <v>2.454</v>
+      </c>
+      <c r="AJ5" s="8">
+        <v>2.437</v>
+      </c>
+      <c r="AK5" s="8">
+        <v>2.431</v>
+      </c>
+      <c r="AL5" s="8">
+        <v>2.45</v>
+      </c>
+      <c r="AM5" s="8">
+        <v>2.454</v>
+      </c>
+      <c r="AN5" s="8">
+        <v>2.426</v>
+      </c>
+      <c r="AO5" s="8">
+        <v>2.406</v>
+      </c>
+      <c r="AP5" s="8">
+        <v>2.386</v>
+      </c>
+      <c r="AQ5" s="8">
+        <v>2.373</v>
+      </c>
+      <c r="AR5" s="8">
+        <v>2.375</v>
+      </c>
+      <c r="AS5" s="8">
+        <v>2.302</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="7" t="s">
@@ -1517,6 +1702,48 @@
       <c r="AE6" s="8">
         <v>1.332</v>
       </c>
+      <c r="AF6" s="8">
+        <v>1.332</v>
+      </c>
+      <c r="AG6" s="8">
+        <v>1.298</v>
+      </c>
+      <c r="AH6" s="8">
+        <v>1.273</v>
+      </c>
+      <c r="AI6" s="8">
+        <v>1.27</v>
+      </c>
+      <c r="AJ6" s="8">
+        <v>1.258</v>
+      </c>
+      <c r="AK6" s="8">
+        <v>1.21</v>
+      </c>
+      <c r="AL6" s="8">
+        <v>1.237</v>
+      </c>
+      <c r="AM6" s="8">
+        <v>1.251</v>
+      </c>
+      <c r="AN6" s="8">
+        <v>1.231</v>
+      </c>
+      <c r="AO6" s="8">
+        <v>1.203</v>
+      </c>
+      <c r="AP6" s="8">
+        <v>1.181</v>
+      </c>
+      <c r="AQ6" s="8">
+        <v>1.181</v>
+      </c>
+      <c r="AR6" s="8">
+        <v>1.126</v>
+      </c>
+      <c r="AS6" s="8">
+        <v>1.051</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="7" t="s">
@@ -1612,6 +1839,48 @@
       <c r="AE7" s="8">
         <v>1.525</v>
       </c>
+      <c r="AF7" s="8">
+        <v>1.525</v>
+      </c>
+      <c r="AG7" s="8">
+        <v>1.496</v>
+      </c>
+      <c r="AH7" s="8">
+        <v>1.511</v>
+      </c>
+      <c r="AI7" s="8">
+        <v>1.518</v>
+      </c>
+      <c r="AJ7" s="8">
+        <v>1.518</v>
+      </c>
+      <c r="AK7" s="8">
+        <v>1.492</v>
+      </c>
+      <c r="AL7" s="8">
+        <v>1.494</v>
+      </c>
+      <c r="AM7" s="8">
+        <v>1.464</v>
+      </c>
+      <c r="AN7" s="8">
+        <v>1.379</v>
+      </c>
+      <c r="AO7" s="8">
+        <v>1.329</v>
+      </c>
+      <c r="AP7" s="8">
+        <v>1.26</v>
+      </c>
+      <c r="AQ7" s="8">
+        <v>1.212</v>
+      </c>
+      <c r="AR7" s="8">
+        <v>1.175</v>
+      </c>
+      <c r="AS7" s="8">
+        <v>1.141</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="7" t="s">
@@ -1707,6 +1976,48 @@
       <c r="AE8" s="8">
         <v>290.0</v>
       </c>
+      <c r="AF8" s="8">
+        <v>225.0</v>
+      </c>
+      <c r="AG8" s="8">
+        <v>225.0</v>
+      </c>
+      <c r="AH8" s="8">
+        <v>222.0</v>
+      </c>
+      <c r="AI8" s="8">
+        <v>259.0</v>
+      </c>
+      <c r="AJ8" s="8">
+        <v>207.0</v>
+      </c>
+      <c r="AK8" s="8">
+        <v>179.0</v>
+      </c>
+      <c r="AL8" s="8">
+        <v>182.0</v>
+      </c>
+      <c r="AM8" s="8">
+        <v>198.0</v>
+      </c>
+      <c r="AN8" s="8">
+        <v>186.0</v>
+      </c>
+      <c r="AO8" s="8">
+        <v>105.0</v>
+      </c>
+      <c r="AP8" s="8">
+        <v>73.0</v>
+      </c>
+      <c r="AQ8" s="8">
+        <v>70.0</v>
+      </c>
+      <c r="AR8" s="8">
+        <v>91.0</v>
+      </c>
+      <c r="AS8" s="8" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="7" t="s">
@@ -1802,6 +2113,48 @@
       <c r="AE9" s="8">
         <v>66.0</v>
       </c>
+      <c r="AF9" s="8">
+        <v>10.0</v>
+      </c>
+      <c r="AG9" s="8">
+        <v>10.0</v>
+      </c>
+      <c r="AH9" s="8">
+        <v>30.0</v>
+      </c>
+      <c r="AI9" s="8">
+        <v>34.0</v>
+      </c>
+      <c r="AJ9" s="8">
+        <v>24.0</v>
+      </c>
+      <c r="AK9" s="8">
+        <v>24.0</v>
+      </c>
+      <c r="AL9" s="8">
+        <v>24.0</v>
+      </c>
+      <c r="AM9" s="8">
+        <v>25.0</v>
+      </c>
+      <c r="AN9" s="8">
+        <v>36.0</v>
+      </c>
+      <c r="AO9" s="8">
+        <v>28.0</v>
+      </c>
+      <c r="AP9" s="8">
+        <v>12.0</v>
+      </c>
+      <c r="AQ9" s="8">
+        <v>12.0</v>
+      </c>
+      <c r="AR9" s="8">
+        <v>24.0</v>
+      </c>
+      <c r="AS9" s="8" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="7" t="s">
@@ -1897,6 +2250,48 @@
       <c r="AE10" s="8" t="s">
         <v>3</v>
       </c>
+      <c r="AF10" s="8">
+        <v>2.039</v>
+      </c>
+      <c r="AG10" s="8">
+        <v>2.012</v>
+      </c>
+      <c r="AH10" s="8">
+        <v>1.997</v>
+      </c>
+      <c r="AI10" s="8">
+        <v>2.002</v>
+      </c>
+      <c r="AJ10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS10" s="8" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="7" t="s">
@@ -1992,6 +2387,48 @@
       <c r="AE11" s="8">
         <v>850.0</v>
       </c>
+      <c r="AF11" s="8">
+        <v>1.226</v>
+      </c>
+      <c r="AG11" s="8">
+        <v>1.226</v>
+      </c>
+      <c r="AH11" s="8">
+        <v>1.214</v>
+      </c>
+      <c r="AI11" s="8">
+        <v>1.19</v>
+      </c>
+      <c r="AJ11" s="8">
+        <v>1.234</v>
+      </c>
+      <c r="AK11" s="8">
+        <v>1.215</v>
+      </c>
+      <c r="AL11" s="8">
+        <v>1.22</v>
+      </c>
+      <c r="AM11" s="8">
+        <v>1.21</v>
+      </c>
+      <c r="AN11" s="8">
+        <v>1.195</v>
+      </c>
+      <c r="AO11" s="8">
+        <v>1.239</v>
+      </c>
+      <c r="AP11" s="8">
+        <v>1.185</v>
+      </c>
+      <c r="AQ11" s="8">
+        <v>1.172</v>
+      </c>
+      <c r="AR11" s="8">
+        <v>1.232</v>
+      </c>
+      <c r="AS11" s="8" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="7" t="s">
@@ -2087,6 +2524,48 @@
       <c r="AE12" s="8">
         <v>-9.0</v>
       </c>
+      <c r="AF12" s="8">
+        <v>-18.0</v>
+      </c>
+      <c r="AG12" s="8">
+        <v>-18.0</v>
+      </c>
+      <c r="AH12" s="8">
+        <v>-15.0</v>
+      </c>
+      <c r="AI12" s="8">
+        <v>-21.0</v>
+      </c>
+      <c r="AJ12" s="8">
+        <v>-6.0</v>
+      </c>
+      <c r="AK12" s="8">
+        <v>-12.0</v>
+      </c>
+      <c r="AL12" s="8">
+        <v>-15.0</v>
+      </c>
+      <c r="AM12" s="8">
+        <v>-11.0</v>
+      </c>
+      <c r="AN12" s="8">
+        <v>-26.0</v>
+      </c>
+      <c r="AO12" s="8">
+        <v>-18.0</v>
+      </c>
+      <c r="AP12" s="8">
+        <v>-25.0</v>
+      </c>
+      <c r="AQ12" s="8">
+        <v>-27.0</v>
+      </c>
+      <c r="AR12" s="8">
+        <v>-16.0</v>
+      </c>
+      <c r="AS12" s="8" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="7" t="s">
@@ -2182,6 +2661,48 @@
       <c r="AE13" s="8">
         <v>181.0</v>
       </c>
+      <c r="AF13" s="8">
+        <v>174.0</v>
+      </c>
+      <c r="AG13" s="8">
+        <v>174.0</v>
+      </c>
+      <c r="AH13" s="8">
+        <v>173.0</v>
+      </c>
+      <c r="AI13" s="8">
+        <v>174.0</v>
+      </c>
+      <c r="AJ13" s="8">
+        <v>175.0</v>
+      </c>
+      <c r="AK13" s="8">
+        <v>170.0</v>
+      </c>
+      <c r="AL13" s="8">
+        <v>175.0</v>
+      </c>
+      <c r="AM13" s="8">
+        <v>165.0</v>
+      </c>
+      <c r="AN13" s="8">
+        <v>167.0</v>
+      </c>
+      <c r="AO13" s="8">
+        <v>176.0</v>
+      </c>
+      <c r="AP13" s="8">
+        <v>176.0</v>
+      </c>
+      <c r="AQ13" s="8">
+        <v>175.0</v>
+      </c>
+      <c r="AR13" s="8">
+        <v>175.0</v>
+      </c>
+      <c r="AS13" s="8" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="7" t="s">
@@ -2277,6 +2798,48 @@
       <c r="AE14" s="8">
         <v>-4.0</v>
       </c>
+      <c r="AF14" s="8">
+        <v>-13.0</v>
+      </c>
+      <c r="AG14" s="8">
+        <v>-13.0</v>
+      </c>
+      <c r="AH14" s="8">
+        <v>-24.0</v>
+      </c>
+      <c r="AI14" s="8">
+        <v>-23.0</v>
+      </c>
+      <c r="AJ14" s="8">
+        <v>-26.0</v>
+      </c>
+      <c r="AK14" s="8">
+        <v>-17.0</v>
+      </c>
+      <c r="AL14" s="8">
+        <v>-20.0</v>
+      </c>
+      <c r="AM14" s="8">
+        <v>-18.0</v>
+      </c>
+      <c r="AN14" s="8">
+        <v>-37.0</v>
+      </c>
+      <c r="AO14" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP14" s="8">
+        <v>-41.0</v>
+      </c>
+      <c r="AQ14" s="8">
+        <v>-40.0</v>
+      </c>
+      <c r="AR14" s="8">
+        <v>-31.0</v>
+      </c>
+      <c r="AS14" s="8" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="7" t="s">
@@ -2372,6 +2935,48 @@
       <c r="AE15" s="8">
         <v>27.757</v>
       </c>
+      <c r="AF15" s="8">
+        <v>27.755</v>
+      </c>
+      <c r="AG15" s="8">
+        <v>27.755</v>
+      </c>
+      <c r="AH15" s="8">
+        <v>27.753</v>
+      </c>
+      <c r="AI15" s="8">
+        <v>27.792</v>
+      </c>
+      <c r="AJ15" s="8">
+        <v>27.763</v>
+      </c>
+      <c r="AK15" s="8">
+        <v>27.785</v>
+      </c>
+      <c r="AL15" s="8">
+        <v>27.77</v>
+      </c>
+      <c r="AM15" s="8">
+        <v>27.75</v>
+      </c>
+      <c r="AN15" s="8">
+        <v>27.757</v>
+      </c>
+      <c r="AO15" s="8">
+        <v>27.696</v>
+      </c>
+      <c r="AP15" s="8">
+        <v>27.697</v>
+      </c>
+      <c r="AQ15" s="8">
+        <v>27.696</v>
+      </c>
+      <c r="AR15" s="8">
+        <v>27.7</v>
+      </c>
+      <c r="AS15" s="8">
+        <v>27.701</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="7" t="s">
@@ -2467,6 +3072,48 @@
       <c r="AE16" s="8">
         <v>1.164</v>
       </c>
+      <c r="AF16" s="8">
+        <v>1.152</v>
+      </c>
+      <c r="AG16" s="8">
+        <v>1.152</v>
+      </c>
+      <c r="AH16" s="8">
+        <v>1.129</v>
+      </c>
+      <c r="AI16" s="8">
+        <v>1.15</v>
+      </c>
+      <c r="AJ16" s="8">
+        <v>1.136</v>
+      </c>
+      <c r="AK16" s="8">
+        <v>1.141</v>
+      </c>
+      <c r="AL16" s="8">
+        <v>1.152</v>
+      </c>
+      <c r="AM16" s="8">
+        <v>1.104</v>
+      </c>
+      <c r="AN16" s="8">
+        <v>1.13</v>
+      </c>
+      <c r="AO16" s="8">
+        <v>1.099</v>
+      </c>
+      <c r="AP16" s="8">
+        <v>1.118</v>
+      </c>
+      <c r="AQ16" s="8">
+        <v>1.117</v>
+      </c>
+      <c r="AR16" s="8">
+        <v>1.12</v>
+      </c>
+      <c r="AS16" s="8">
+        <v>1.117</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="7" t="s">
@@ -2562,6 +3209,48 @@
       <c r="AE17" s="8">
         <v>1.372</v>
       </c>
+      <c r="AF17" s="8">
+        <v>1.342</v>
+      </c>
+      <c r="AG17" s="8">
+        <v>1.342</v>
+      </c>
+      <c r="AH17" s="8">
+        <v>1.376</v>
+      </c>
+      <c r="AI17" s="8">
+        <v>1.338</v>
+      </c>
+      <c r="AJ17" s="8">
+        <v>1.352</v>
+      </c>
+      <c r="AK17" s="8">
+        <v>1.327</v>
+      </c>
+      <c r="AL17" s="8">
+        <v>1.326</v>
+      </c>
+      <c r="AM17" s="8">
+        <v>1.356</v>
+      </c>
+      <c r="AN17" s="8">
+        <v>1.346</v>
+      </c>
+      <c r="AO17" s="8">
+        <v>1.337</v>
+      </c>
+      <c r="AP17" s="8">
+        <v>1.337</v>
+      </c>
+      <c r="AQ17" s="8">
+        <v>1.349</v>
+      </c>
+      <c r="AR17" s="8">
+        <v>1.327</v>
+      </c>
+      <c r="AS17" s="8">
+        <v>1.349</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="7" t="s">
@@ -2657,6 +3346,48 @@
       <c r="AE18" s="8">
         <v>111.0</v>
       </c>
+      <c r="AF18" s="8">
+        <v>62.0</v>
+      </c>
+      <c r="AG18" s="8">
+        <v>62.0</v>
+      </c>
+      <c r="AH18" s="8">
+        <v>90.0</v>
+      </c>
+      <c r="AI18" s="8">
+        <v>20.0</v>
+      </c>
+      <c r="AJ18" s="8">
+        <v>44.0</v>
+      </c>
+      <c r="AK18" s="8">
+        <v>-18.0</v>
+      </c>
+      <c r="AL18" s="8">
+        <v>9.0</v>
+      </c>
+      <c r="AM18" s="8">
+        <v>18.0</v>
+      </c>
+      <c r="AN18" s="8">
+        <v>-1.0</v>
+      </c>
+      <c r="AO18" s="8">
+        <v>-19.0</v>
+      </c>
+      <c r="AP18" s="8">
+        <v>-30.0</v>
+      </c>
+      <c r="AQ18" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="AR18" s="8">
+        <v>14.0</v>
+      </c>
+      <c r="AS18" s="8">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="7" t="s">
@@ -2752,6 +3483,48 @@
       <c r="AE19" s="8">
         <v>-51.0</v>
       </c>
+      <c r="AF19" s="8">
+        <v>-51.0</v>
+      </c>
+      <c r="AG19" s="8">
+        <v>-40.0</v>
+      </c>
+      <c r="AH19" s="8">
+        <v>-41.0</v>
+      </c>
+      <c r="AI19" s="8">
+        <v>-45.0</v>
+      </c>
+      <c r="AJ19" s="8">
+        <v>-26.0</v>
+      </c>
+      <c r="AK19" s="8">
+        <v>-51.0</v>
+      </c>
+      <c r="AL19" s="8">
+        <v>-50.0</v>
+      </c>
+      <c r="AM19" s="8">
+        <v>-45.0</v>
+      </c>
+      <c r="AN19" s="8">
+        <v>-35.0</v>
+      </c>
+      <c r="AO19" s="8">
+        <v>-42.0</v>
+      </c>
+      <c r="AP19" s="8">
+        <v>-62.0</v>
+      </c>
+      <c r="AQ19" s="8">
+        <v>-54.0</v>
+      </c>
+      <c r="AR19" s="8">
+        <v>-45.0</v>
+      </c>
+      <c r="AS19" s="8" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="7" t="s">
@@ -2846,13 +3619,55 @@
       </c>
       <c r="AE20" s="8">
         <v>-68.0</v>
+      </c>
+      <c r="AF20" s="8">
+        <v>-68.0</v>
+      </c>
+      <c r="AG20" s="8">
+        <v>-53.0</v>
+      </c>
+      <c r="AH20" s="8">
+        <v>-58.0</v>
+      </c>
+      <c r="AI20" s="8">
+        <v>-49.0</v>
+      </c>
+      <c r="AJ20" s="8">
+        <v>-34.0</v>
+      </c>
+      <c r="AK20" s="8">
+        <v>-53.0</v>
+      </c>
+      <c r="AL20" s="8">
+        <v>-56.0</v>
+      </c>
+      <c r="AM20" s="8">
+        <v>-55.0</v>
+      </c>
+      <c r="AN20" s="8">
+        <v>-45.0</v>
+      </c>
+      <c r="AO20" s="8">
+        <v>-50.0</v>
+      </c>
+      <c r="AP20" s="8">
+        <v>-63.0</v>
+      </c>
+      <c r="AQ20" s="8">
+        <v>-57.0</v>
+      </c>
+      <c r="AR20" s="8">
+        <v>-45.0</v>
+      </c>
+      <c r="AS20" s="8" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:W1"/>
-    <mergeCell ref="X1:AE1"/>
+    <mergeCell ref="X1:AS1"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
